--- a/GameNov18_intro/survey3_en.xlsx
+++ b/GameNov18_intro/survey3_en.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatiana Mayskaya\Dropbox\HSE\Research\Project with Alexander Matros\oTree\GameNov18_intro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmays\Dropbox\HSE\Research\Project with Alexander Matros\oTree\GameNov18_intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C80268-3B48-4C1D-B602-4E5500D6F1E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12143" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -32,30 +33,6 @@
     <t>question</t>
   </si>
   <si>
-    <t>Player 2 should always accept any offer, even 0 tokens. Any other behavior is just stupid.</t>
-  </si>
-  <si>
-    <t>Player 2 should always accept any positive offer, though she might reasonably decline the offer of 0 tokens. Any other behavior is just stupid.</t>
-  </si>
-  <si>
-    <t>Player 2 would normally reject low offers. Most people accept an offer of at least 30 tokens.</t>
-  </si>
-  <si>
-    <t>Player 2 should reject anything below 50 tokens.</t>
-  </si>
-  <si>
-    <t>Player 1 should give 50 tokens in any game, aiming for a fair division.</t>
-  </si>
-  <si>
-    <t>Player 1 has moral right to offer 0 tokens in game 2. There is no shame in doing it.</t>
-  </si>
-  <si>
-    <t>In game 3, player 1 should give more to player 2 who chose game 1.</t>
-  </si>
-  <si>
-    <t>In game 3, player 1 should give more to player 2 who chose game 2.</t>
-  </si>
-  <si>
     <t>In game 3, the choice of game 1 is a sign of non-cooperative behavior.</t>
   </si>
   <si>
@@ -104,12 +81,6 @@
     <t>Player 2 should expect to get less in game 3 than in game 1.</t>
   </si>
   <si>
-    <t>Player 2 should expect to get more in game 3 than in game 2.</t>
-  </si>
-  <si>
-    <t>Player 2 should expect to get less in game 3 than in game 2.</t>
-  </si>
-  <si>
     <t>When playing game 1, it does not make any difference for player 1 whether player 2 chose to play that game (as in game 3) or it was the computer's choice (as in game 1).</t>
   </si>
   <si>
@@ -125,19 +96,22 @@
     <t>Player 2 should expect to get the same in games 1 and 3.</t>
   </si>
   <si>
-    <t>Player 2 should expect to get the same in games 2 and 3.</t>
-  </si>
-  <si>
     <t>Player 2 should be more agreeable (accept more offers) in game 1 if she chose to play that game because low offers are now perceived as not as unfair as before, when game 1 was the computer's choice.</t>
   </si>
   <si>
     <t>Player 1 should give the same number of tokens to player 2 in games 1 and 3 conditional on player 2 choosing game 1 in game 3.</t>
+  </si>
+  <si>
+    <t>Player 2 should choose game 1.</t>
+  </si>
+  <si>
+    <t>Player 2 should choose game 2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,20 +452,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="211.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="211.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -507,7 +479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -515,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -523,252 +495,180 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
+      <c r="B26" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
